--- a/Inputs/UKRI non GCRF-Newton projects.xlsx
+++ b/Inputs/UKRI non GCRF-Newton projects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\GitHub - R Projects\ODA_research_and_innovation\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\My Documents\GitHub\ODA_research_and_innovation\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DBDF1C1-3CA9-481B-A9A0-DB7A7581A91B}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB70E1FE-D1AC-418F-945B-12AE121956E4}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1188" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2F4B21-F468-4F3D-9B32-1F43EB9441E3}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Missing projects (IDs)" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UKRI projects (IDs)'!$A$1:$G$926</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UKRI projects (IDs)'!$A$1:$G$928</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5458" uniqueCount="1369">
   <si>
     <t>IATI ID</t>
   </si>
@@ -4138,6 +4138,15 @@
   </si>
   <si>
     <t>FCDO Research &amp; Evidence Division</t>
+  </si>
+  <si>
+    <t>Encapsulated antimicrobial precursors for non-antibiotic treatment of MDRO in poultry</t>
+  </si>
+  <si>
+    <t>EP/R013764/1</t>
+  </si>
+  <si>
+    <t>Vax-Hub</t>
   </si>
 </sst>
 </file>
@@ -4229,7 +4238,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4563,18 +4582,18 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G926"/>
+  <dimension ref="A1:G928"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A874" sqref="A874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="16.69921875" customWidth="1"/>
     <col min="6" max="6" width="20.09765625" customWidth="1"/>
@@ -21906,10 +21925,10 @@
         <v>103</v>
       </c>
       <c r="F852">
-        <v>104991</v>
+        <v>104990</v>
       </c>
       <c r="G852" t="s">
-        <v>113</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
@@ -21929,10 +21948,10 @@
         <v>103</v>
       </c>
       <c r="F853">
-        <v>104992</v>
+        <v>104991</v>
       </c>
       <c r="G853" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
@@ -21952,10 +21971,10 @@
         <v>103</v>
       </c>
       <c r="F854">
-        <v>104993</v>
+        <v>104992</v>
       </c>
       <c r="G854" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
@@ -21975,15 +21994,15 @@
         <v>103</v>
       </c>
       <c r="F855">
-        <v>104994</v>
+        <v>104993</v>
       </c>
       <c r="G855" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B856" t="s">
         <v>1361</v>
@@ -21992,16 +22011,16 @@
         <v>1362</v>
       </c>
       <c r="D856" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E856" t="s">
-        <v>91</v>
-      </c>
-      <c r="F856" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="F856">
+        <v>104994</v>
       </c>
       <c r="G856" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
@@ -22021,10 +22040,10 @@
         <v>91</v>
       </c>
       <c r="F857" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G857" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
@@ -22044,10 +22063,10 @@
         <v>91</v>
       </c>
       <c r="F858" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G858" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
@@ -22067,10 +22086,10 @@
         <v>91</v>
       </c>
       <c r="F859" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G859" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
@@ -22090,30 +22109,33 @@
         <v>91</v>
       </c>
       <c r="F860" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G860" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B861" t="s">
         <v>1361</v>
       </c>
       <c r="C861" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D861" t="s">
         <v>78</v>
       </c>
+      <c r="E861" t="s">
+        <v>91</v>
+      </c>
       <c r="F861" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G861" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
@@ -22130,10 +22152,10 @@
         <v>78</v>
       </c>
       <c r="F862" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G862" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
@@ -22150,10 +22172,10 @@
         <v>78</v>
       </c>
       <c r="F863" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G863" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
@@ -22170,10 +22192,10 @@
         <v>78</v>
       </c>
       <c r="F864" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G864" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
@@ -22190,15 +22212,15 @@
         <v>78</v>
       </c>
       <c r="F865" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G865" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B866" t="s">
         <v>1361</v>
@@ -22207,16 +22229,13 @@
         <v>1363</v>
       </c>
       <c r="D866" t="s">
-        <v>6</v>
-      </c>
-      <c r="E866" t="s">
-        <v>65</v>
-      </c>
-      <c r="F866">
-        <v>971553</v>
+        <v>78</v>
+      </c>
+      <c r="F866" t="s">
+        <v>81</v>
       </c>
       <c r="G866" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
@@ -22236,10 +22255,10 @@
         <v>65</v>
       </c>
       <c r="F867">
-        <v>971554</v>
+        <v>971553</v>
       </c>
       <c r="G867" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
@@ -22259,10 +22278,10 @@
         <v>65</v>
       </c>
       <c r="F868">
-        <v>971555</v>
+        <v>971554</v>
       </c>
       <c r="G868" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
@@ -22282,10 +22301,10 @@
         <v>65</v>
       </c>
       <c r="F869">
-        <v>971556</v>
+        <v>971555</v>
       </c>
       <c r="G869" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
@@ -22305,10 +22324,10 @@
         <v>65</v>
       </c>
       <c r="F870">
-        <v>971557</v>
+        <v>971556</v>
       </c>
       <c r="G870" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
@@ -22328,10 +22347,10 @@
         <v>65</v>
       </c>
       <c r="F871">
-        <v>971558</v>
+        <v>971557</v>
       </c>
       <c r="G871" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
@@ -22351,15 +22370,15 @@
         <v>65</v>
       </c>
       <c r="F872">
-        <v>971574</v>
+        <v>971558</v>
       </c>
       <c r="G872" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B873" t="s">
         <v>1361</v>
@@ -22368,18 +22387,21 @@
         <v>1363</v>
       </c>
       <c r="D873" t="s">
-        <v>74</v>
-      </c>
-      <c r="F873" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="E873" t="s">
+        <v>65</v>
+      </c>
+      <c r="F873">
+        <v>971574</v>
       </c>
       <c r="G873" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B874" t="s">
         <v>1361</v>
@@ -22388,21 +22410,18 @@
         <v>1363</v>
       </c>
       <c r="D874" t="s">
-        <v>6</v>
-      </c>
-      <c r="E874" t="s">
-        <v>34</v>
-      </c>
-      <c r="F874">
-        <v>971507</v>
+        <v>74</v>
+      </c>
+      <c r="F874" t="s">
+        <v>75</v>
       </c>
       <c r="G874" t="s">
-        <v>35</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B875" t="s">
         <v>1361</v>
@@ -22411,16 +22430,13 @@
         <v>1363</v>
       </c>
       <c r="D875" t="s">
-        <v>6</v>
-      </c>
-      <c r="E875" t="s">
-        <v>34</v>
-      </c>
-      <c r="F875">
-        <v>971508</v>
+        <v>74</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1367</v>
       </c>
       <c r="G875" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
@@ -22440,10 +22456,10 @@
         <v>34</v>
       </c>
       <c r="F876">
-        <v>971509</v>
+        <v>971507</v>
       </c>
       <c r="G876" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
@@ -22463,10 +22479,10 @@
         <v>34</v>
       </c>
       <c r="F877">
-        <v>971510</v>
+        <v>971508</v>
       </c>
       <c r="G877" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
@@ -22486,10 +22502,10 @@
         <v>34</v>
       </c>
       <c r="F878">
-        <v>971511</v>
+        <v>971509</v>
       </c>
       <c r="G878" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
@@ -22509,10 +22525,10 @@
         <v>34</v>
       </c>
       <c r="F879">
-        <v>971512</v>
+        <v>971510</v>
       </c>
       <c r="G879" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
@@ -22532,10 +22548,10 @@
         <v>34</v>
       </c>
       <c r="F880">
-        <v>971513</v>
+        <v>971511</v>
       </c>
       <c r="G880" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
@@ -22555,10 +22571,10 @@
         <v>34</v>
       </c>
       <c r="F881">
-        <v>971514</v>
+        <v>971512</v>
       </c>
       <c r="G881" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
@@ -22578,10 +22594,10 @@
         <v>34</v>
       </c>
       <c r="F882">
-        <v>971515</v>
+        <v>971513</v>
       </c>
       <c r="G882" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
@@ -22601,10 +22617,10 @@
         <v>34</v>
       </c>
       <c r="F883">
-        <v>971516</v>
+        <v>971514</v>
       </c>
       <c r="G883" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
@@ -22624,10 +22640,10 @@
         <v>34</v>
       </c>
       <c r="F884">
-        <v>971517</v>
+        <v>971515</v>
       </c>
       <c r="G884" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
@@ -22647,10 +22663,10 @@
         <v>34</v>
       </c>
       <c r="F885">
-        <v>971518</v>
+        <v>971516</v>
       </c>
       <c r="G885" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
@@ -22670,10 +22686,10 @@
         <v>34</v>
       </c>
       <c r="F886">
-        <v>971519</v>
+        <v>971517</v>
       </c>
       <c r="G886" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.25">
@@ -22693,10 +22709,10 @@
         <v>34</v>
       </c>
       <c r="F887">
-        <v>971520</v>
+        <v>971518</v>
       </c>
       <c r="G887" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
@@ -22716,10 +22732,10 @@
         <v>34</v>
       </c>
       <c r="F888">
-        <v>971521</v>
+        <v>971519</v>
       </c>
       <c r="G888" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
@@ -22739,10 +22755,10 @@
         <v>34</v>
       </c>
       <c r="F889">
-        <v>971522</v>
+        <v>971520</v>
       </c>
       <c r="G889" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
@@ -22762,10 +22778,10 @@
         <v>34</v>
       </c>
       <c r="F890">
-        <v>971523</v>
+        <v>971521</v>
       </c>
       <c r="G890" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
@@ -22785,10 +22801,10 @@
         <v>34</v>
       </c>
       <c r="F891">
-        <v>971524</v>
+        <v>971522</v>
       </c>
       <c r="G891" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
@@ -22808,10 +22824,10 @@
         <v>34</v>
       </c>
       <c r="F892">
-        <v>971525</v>
+        <v>971523</v>
       </c>
       <c r="G892" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
@@ -22831,10 +22847,10 @@
         <v>34</v>
       </c>
       <c r="F893">
-        <v>971526</v>
+        <v>971524</v>
       </c>
       <c r="G893" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
@@ -22854,10 +22870,10 @@
         <v>34</v>
       </c>
       <c r="F894">
-        <v>971527</v>
+        <v>971525</v>
       </c>
       <c r="G894" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
@@ -22877,10 +22893,10 @@
         <v>34</v>
       </c>
       <c r="F895">
-        <v>971540</v>
+        <v>971526</v>
       </c>
       <c r="G895" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
@@ -22897,13 +22913,13 @@
         <v>6</v>
       </c>
       <c r="E896" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F896">
-        <v>971613</v>
+        <v>971527</v>
       </c>
       <c r="G896" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
@@ -22920,13 +22936,13 @@
         <v>6</v>
       </c>
       <c r="E897" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F897">
-        <v>971614</v>
+        <v>971540</v>
       </c>
       <c r="G897" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
@@ -22946,10 +22962,10 @@
         <v>57</v>
       </c>
       <c r="F898">
-        <v>971615</v>
+        <v>971613</v>
       </c>
       <c r="G898" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
@@ -22969,10 +22985,10 @@
         <v>57</v>
       </c>
       <c r="F899">
-        <v>971616</v>
+        <v>971614</v>
       </c>
       <c r="G899" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
@@ -22992,10 +23008,10 @@
         <v>57</v>
       </c>
       <c r="F900">
-        <v>971617</v>
+        <v>971615</v>
       </c>
       <c r="G900" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
@@ -23015,10 +23031,10 @@
         <v>57</v>
       </c>
       <c r="F901">
-        <v>971618</v>
+        <v>971616</v>
       </c>
       <c r="G901" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -23038,15 +23054,15 @@
         <v>57</v>
       </c>
       <c r="F902">
-        <v>971619</v>
+        <v>971617</v>
       </c>
       <c r="G902" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B903" t="s">
         <v>1361</v>
@@ -23058,18 +23074,18 @@
         <v>6</v>
       </c>
       <c r="E903" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F903">
-        <v>972211</v>
+        <v>971618</v>
       </c>
       <c r="G903" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B904" t="s">
         <v>1361</v>
@@ -23081,13 +23097,13 @@
         <v>6</v>
       </c>
       <c r="E904" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F904">
-        <v>972212</v>
+        <v>971619</v>
       </c>
       <c r="G904" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
@@ -23107,10 +23123,10 @@
         <v>23</v>
       </c>
       <c r="F905">
-        <v>972213</v>
+        <v>972211</v>
       </c>
       <c r="G905" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
@@ -23130,10 +23146,10 @@
         <v>23</v>
       </c>
       <c r="F906">
-        <v>972214</v>
+        <v>972212</v>
       </c>
       <c r="G906" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
@@ -23153,10 +23169,10 @@
         <v>23</v>
       </c>
       <c r="F907">
-        <v>972215</v>
+        <v>972213</v>
       </c>
       <c r="G907" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
@@ -23173,13 +23189,13 @@
         <v>6</v>
       </c>
       <c r="E908" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F908">
-        <v>972216</v>
+        <v>972214</v>
       </c>
       <c r="G908" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
@@ -23196,13 +23212,13 @@
         <v>6</v>
       </c>
       <c r="E909" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F909">
-        <v>972217</v>
+        <v>972215</v>
       </c>
       <c r="G909" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
@@ -23222,10 +23238,10 @@
         <v>7</v>
       </c>
       <c r="F910">
-        <v>972218</v>
+        <v>972216</v>
       </c>
       <c r="G910" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
@@ -23245,10 +23261,10 @@
         <v>7</v>
       </c>
       <c r="F911">
-        <v>972219</v>
+        <v>972217</v>
       </c>
       <c r="G911" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
@@ -23268,10 +23284,10 @@
         <v>7</v>
       </c>
       <c r="F912">
-        <v>972220</v>
+        <v>972218</v>
       </c>
       <c r="G912" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -23291,10 +23307,10 @@
         <v>7</v>
       </c>
       <c r="F913">
-        <v>972221</v>
+        <v>972219</v>
       </c>
       <c r="G913" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -23314,10 +23330,10 @@
         <v>7</v>
       </c>
       <c r="F914">
-        <v>972222</v>
+        <v>972220</v>
       </c>
       <c r="G914" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -23337,10 +23353,10 @@
         <v>7</v>
       </c>
       <c r="F915">
-        <v>972223</v>
+        <v>972221</v>
       </c>
       <c r="G915" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -23360,10 +23376,10 @@
         <v>7</v>
       </c>
       <c r="F916">
-        <v>972224</v>
+        <v>972222</v>
       </c>
       <c r="G916" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -23383,10 +23399,10 @@
         <v>7</v>
       </c>
       <c r="F917">
-        <v>972225</v>
+        <v>972223</v>
       </c>
       <c r="G917" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -23406,10 +23422,10 @@
         <v>7</v>
       </c>
       <c r="F918">
-        <v>972226</v>
+        <v>972224</v>
       </c>
       <c r="G918" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -23429,10 +23445,10 @@
         <v>7</v>
       </c>
       <c r="F919">
-        <v>972227</v>
+        <v>972225</v>
       </c>
       <c r="G919" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
@@ -23452,10 +23468,10 @@
         <v>7</v>
       </c>
       <c r="F920">
-        <v>972228</v>
+        <v>972226</v>
       </c>
       <c r="G920" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
@@ -23475,10 +23491,10 @@
         <v>7</v>
       </c>
       <c r="F921">
-        <v>972229</v>
+        <v>972227</v>
       </c>
       <c r="G921" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
@@ -23498,10 +23514,10 @@
         <v>7</v>
       </c>
       <c r="F922">
-        <v>972230</v>
+        <v>972228</v>
       </c>
       <c r="G922" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
@@ -23518,13 +23534,13 @@
         <v>6</v>
       </c>
       <c r="E923" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F923">
-        <v>972236</v>
+        <v>972229</v>
       </c>
       <c r="G923" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
@@ -23541,13 +23557,13 @@
         <v>6</v>
       </c>
       <c r="E924" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F924">
-        <v>972237</v>
+        <v>972230</v>
       </c>
       <c r="G924" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
@@ -23567,10 +23583,10 @@
         <v>29</v>
       </c>
       <c r="F925">
-        <v>972238</v>
+        <v>972236</v>
       </c>
       <c r="G925" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
@@ -23590,23 +23606,67 @@
         <v>29</v>
       </c>
       <c r="F926">
+        <v>972237</v>
+      </c>
+      <c r="G926" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>5</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D927" t="s">
+        <v>6</v>
+      </c>
+      <c r="E927" t="s">
+        <v>29</v>
+      </c>
+      <c r="F927">
+        <v>972238</v>
+      </c>
+      <c r="G927" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>5</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D928" t="s">
+        <v>6</v>
+      </c>
+      <c r="E928" t="s">
+        <v>29</v>
+      </c>
+      <c r="F928">
         <v>972239</v>
       </c>
-      <c r="G926" t="s">
+      <c r="G928" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G926" xr:uid="{69049BA6-F7B9-4E20-9E86-274554313E03}">
-    <sortState ref="A2:G926">
-      <sortCondition ref="A1:A926"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F462:F520">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F851 F853:F1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F852">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -23702,6 +23762,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6713CC7F31D7C498DF06765AF1263E4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49295815813be5682bd1502ac40ad112">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e449739-2858-4f41-8e5c-7dc6df20853e" xmlns:ns4="05c15269-663a-4da2-bb2b-1510839404b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57db594e689bb932d2839527134c19ea" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23935,25 +24013,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145BBD6B-A846-4263-BED8-B399B91A0B7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
+    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D5880-A9EF-4322-906E-79CE5A8FFAC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23971,30 +24057,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145BBD6B-A846-4263-BED8-B399B91A0B7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>